--- a/curso-completo/excel_365_do_zero_ao_avancado/4.basico_expressoes_e_funcoes/56.funcao_media/48+-+Função+MÉDIA.xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/4.basico_expressoes_e_funcoes/56.funcao_media/48+-+Função+MÉDIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Capítulo 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\4.basico_expressoes_e_funcoes\56.funcao_media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0A9AF6-1805-41DE-A1C7-C70C6B198BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDCD4EE-B735-48D1-8306-CDAEA8A6AF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
   <sheets>
     <sheet name="Função Média" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -482,41 +474,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,9 +513,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="7" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,13 +543,37 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -903,31 +895,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5155D-10BE-4AB6-89E0-20C2DF17DBAD}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
@@ -937,12 +929,12 @@
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -953,7 +945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -964,7 +956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
@@ -984,110 +976,119 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="16">
         <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="16">
         <v>10</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="16">
         <v>9</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="16">
         <v>9</v>
       </c>
       <c r="H13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="16">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="16">
         <v>8</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="16">
         <v>8</v>
       </c>
       <c r="H14" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="16">
         <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="16">
         <v>10</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="17">
+        <f>AVERAGE(C12:C15)</f>
+        <v>9.25</v>
+      </c>
       <c r="E16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="17">
+        <f>AVERAGE(F12:F15)</f>
+        <v>9.25</v>
+      </c>
       <c r="H16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="19" spans="2:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="23" t="s">
+      <c r="I16" s="17">
+        <f>AVERAGE(I12:I15)</f>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B19" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+    </row>
+    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>9</v>
       </c>
@@ -1097,11 +1098,11 @@
       <c r="D21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="8">
         <v>16</v>
       </c>
@@ -1111,21 +1112,27 @@
       <c r="D22" s="10">
         <v>14</v>
       </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E22" s="48">
+        <f>AVERAGE(B22:D22)</f>
+        <v>21.333333333333332</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="9">
         <v>88</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="13">
         <v>12</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="13">
         <v>5</v>
       </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E23" s="49">
+        <f t="shared" ref="E23:E38" si="0">AVERAGE(B23:D23)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="8">
         <v>68</v>
       </c>
@@ -1135,21 +1142,27 @@
       <c r="D24" s="10">
         <v>34</v>
       </c>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E24" s="48">
+        <f t="shared" si="0"/>
+        <v>55.666666666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>47</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="13">
         <v>79</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="13">
         <v>12</v>
       </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E25" s="49">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="8">
         <v>59</v>
       </c>
@@ -1159,21 +1172,27 @@
       <c r="D26" s="10">
         <v>65</v>
       </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E26" s="48">
+        <f t="shared" si="0"/>
+        <v>64.333333333333329</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>81</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="13">
         <v>66</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="13">
         <v>79</v>
       </c>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E27" s="49">
+        <f t="shared" si="0"/>
+        <v>75.333333333333329</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="8">
         <v>83</v>
       </c>
@@ -1183,21 +1202,27 @@
       <c r="D28" s="10">
         <v>69</v>
       </c>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E28" s="48">
+        <f t="shared" si="0"/>
+        <v>59.333333333333336</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>29</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="13">
         <v>88</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="13">
         <v>66</v>
       </c>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="49">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="8">
         <v>49</v>
       </c>
@@ -1207,21 +1232,27 @@
       <c r="D30" s="10">
         <v>26</v>
       </c>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E30" s="48">
+        <f t="shared" si="0"/>
+        <v>47.666666666666664</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>41</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="13">
         <v>47</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="13">
         <v>77</v>
       </c>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E31" s="49">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="8">
         <v>13</v>
       </c>
@@ -1231,21 +1262,27 @@
       <c r="D32" s="10">
         <v>15</v>
       </c>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E32" s="48">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>16</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="13">
         <v>81</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="13">
         <v>14</v>
       </c>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E33" s="49">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="8">
         <v>15</v>
       </c>
@@ -1255,21 +1292,27 @@
       <c r="D34" s="10">
         <v>30</v>
       </c>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E34" s="48">
+        <f t="shared" si="0"/>
+        <v>42.666666666666664</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>26</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="13">
         <v>26</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="13">
         <v>23</v>
       </c>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E35" s="49">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="8">
         <v>29</v>
       </c>
@@ -1279,31 +1322,40 @@
       <c r="D36" s="10">
         <v>79</v>
       </c>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E36" s="48">
+        <f t="shared" si="0"/>
+        <v>40.666666666666664</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>49</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="13">
         <v>30</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="13">
         <v>69</v>
       </c>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="17">
+      <c r="E37" s="49">
+        <f t="shared" si="0"/>
+        <v>49.333333333333336</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="14">
         <v>41</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="15">
         <v>23</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="15">
         <v>66</v>
       </c>
-      <c r="E38" s="19"/>
+      <c r="E38" s="50">
+        <f t="shared" si="0"/>
+        <v>43.333333333333336</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1322,138 +1374,150 @@
   <dimension ref="D5:J11"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J8" sqref="J8:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:10" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="D5" s="37" t="s">
+    <row r="5" spans="4:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="D5" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-    </row>
-    <row r="6" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D7" s="36" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+    </row>
+    <row r="6" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="30" t="s">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="22">
         <v>5100</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="22">
         <v>5000</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="22">
         <v>5200</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="22">
         <v>5300</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="22">
         <v>5230</v>
       </c>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D9" s="33" t="s">
+      <c r="J8" s="21">
+        <f>AVERAGE(E8:I8)</f>
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="25">
         <v>4500</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="25">
         <v>4800</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="25">
         <v>4900</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="25">
         <v>4600</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="25">
         <v>4770</v>
       </c>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D10" s="30" t="s">
+      <c r="J9" s="24">
+        <f t="shared" ref="J9:J11" si="0">AVERAGE(E9:I9)</f>
+        <v>4714</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="22">
         <v>3500</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="22">
         <v>3600</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="22">
         <v>3700</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="22">
         <v>3600</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="22">
         <v>3299</v>
       </c>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="27" t="s">
+      <c r="J10" s="21">
+        <f t="shared" si="0"/>
+        <v>3539.8</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="19">
         <v>3200</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="19">
         <v>3100</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="19">
         <v>3150</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="19">
         <v>3330</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="19">
         <v>3600</v>
       </c>
-      <c r="J11" s="25"/>
+      <c r="J11" s="18">
+        <f t="shared" si="0"/>
+        <v>3276</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1469,84 +1533,87 @@
   <dimension ref="D5:E15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="D5" s="48" t="s">
+    <row r="5" spans="4:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="D5" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="48"/>
-    </row>
-    <row r="6" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="47" t="s">
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D9" s="45" t="s">
+    <row r="8" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D10" s="41" t="s">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="32">
         <v>8500</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D11" s="43" t="s">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="34">
         <v>9100</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D12" s="41" t="s">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="32">
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D13" s="43" t="s">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="34">
         <v>8800</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D14" s="41" t="s">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="32">
         <v>8900</v>
       </c>
     </row>
-    <row r="15" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="39" t="s">
+    <row r="15" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="38"/>
+      <c r="E15" s="30">
+        <f>AVERAGE(E10:E14)</f>
+        <v>8860</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1561,75 +1628,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EE8B7C-FC85-49A5-81D9-D35038A66F0B}">
   <dimension ref="D2:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="D2" s="48" t="s">
+    <row r="2" spans="4:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="D2" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="48"/>
-    </row>
-    <row r="3" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="47" t="s">
+      <c r="E2" s="46"/>
+    </row>
+    <row r="3" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D6" s="45" t="s">
+    <row r="5" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D7" s="41" t="s">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="40">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D8" s="43" t="s">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D9" s="41" t="s">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="40">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D10" s="43" t="s">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="41">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="39" t="s">
+    <row r="11" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="30">
+        <f>AVERAGE(E7:E10)</f>
+        <v>9.25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1644,33 +1716,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4B1D2F-C6B2-47F1-A594-6C85C8DA4CAF}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:3" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1678,7 +1750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1686,18 +1758,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD2"/>
